--- a/examples/example4_ethnic_voting.xlsx
+++ b/examples/example4_ethnic_voting.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuwan.senaratna/Dropbox/_CODING/py/elections_lk/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C08B87DB-2AF4-1541-8B91-E2DCCC274E9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F4E4F0A1-8288-AD4B-8529-C3BA8E85BBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9620" yWindow="2420" windowWidth="28100" windowHeight="16940" activeTab="1"/>
+    <workbookView xWindow="660" yWindow="500" windowWidth="28100" windowHeight="16700" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="example4_ethnic_voting" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Parliamentary" sheetId="2" r:id="rId2"/>
+    <sheet name="Presidential" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="13">
   <si>
     <t>election_type</t>
   </si>
@@ -73,9 +74,6 @@
   </si>
   <si>
     <t>date</t>
-  </si>
-  <si>
-    <t>Column1</t>
   </si>
 </sst>
 </file>
@@ -595,10 +593,7 @@
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="15" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
@@ -630,6 +625,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2520" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Variation explained by Ethnicity (Sri Lankan Parliamentary Elections)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-LK"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -643,16 +664,16 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2520" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
                   <a:lumOff val="35000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
+              <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
             </a:defRPr>
           </a:pPr>
           <a:endParaRPr lang="en-LK"/>
@@ -679,120 +700,143 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-213C-1A45-8144-76BF12005C96}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-213C-1A45-8144-76BF12005C96}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-213C-1A45-8144-76BF12005C96}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-213C-1A45-8144-76BF12005C96}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
-            <c:strRef>
-              <c:f>example4_ethnic_voting!$D$2:$D$18</c:f>
-              <c:strCache>
-                <c:ptCount val="17"/>
+            <c:numRef>
+              <c:f>example4_ethnic_voting!$C$3:$C$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>1982-presidential</c:v>
+                  <c:v>1989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1988-presidential</c:v>
+                  <c:v>1994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1989-parliamentary</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1994-parliamentary</c:v>
+                  <c:v>2001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1994-presidential</c:v>
+                  <c:v>2004</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1999-presidential</c:v>
+                  <c:v>2010</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2000-parliamentary</c:v>
+                  <c:v>2015</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2001-parliamentary</c:v>
+                  <c:v>2020</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>2004-parliamentary</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2005-presidential</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2010-presidential</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2010-parliamentary</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2015-presidential</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2015-parliamentary</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2018-local-authority</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2019-presidential</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2020-parliamentary</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>example4_ethnic_voting!$E$2:$E$18</c:f>
+              <c:f>example4_ethnic_voting!$D$3:$D$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.7863335482169998E-2</c:v>
+                  <c:v>9.8320271713257495E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4721841736271301E-2</c:v>
+                  <c:v>5.8090633365218997E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.8320271713257495E-2</c:v>
+                  <c:v>6.2579681173910606E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.8090633365218997E-2</c:v>
+                  <c:v>5.22279319862793E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2998459664190002E-2</c:v>
+                  <c:v>8.9894535846266693E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.5608293130512705E-2</c:v>
+                  <c:v>7.9603091206513696E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>6.2579681173910606E-2</c:v>
+                  <c:v>7.8659304741233796E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.22279319862793E-2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.9894535846266693E-2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11416077579961</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.16517150769934799</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.9603091206513696E-2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.183417569617359</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7.8659304741233796E-2</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.11539310884200001</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.22343627813119399</c:v>
-                </c:pt>
-                <c:pt idx="16">
                   <c:v>0.21146280946618601</c:v>
                 </c:pt>
               </c:numCache>
@@ -800,7 +844,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-73C8-674D-971C-07A20BF28E50}"/>
+              <c16:uniqueId val="{00000000-213C-1A45-8144-76BF12005C96}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -814,11 +858,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="351260496"/>
-        <c:axId val="1280574928"/>
+        <c:axId val="351128768"/>
+        <c:axId val="1285597904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="351260496"/>
+        <c:axId val="351128768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -846,22 +890,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-LK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1280574928"/>
+        <c:crossAx val="1285597904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -869,7 +913,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1280574928"/>
+        <c:axId val="1285597904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -889,7 +933,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -905,22 +949,22 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:schemeClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-LK"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="351260496"/>
+        <c:crossAx val="351128768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -963,7 +1007,422 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="2100" b="0" i="0">
+          <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+          <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-LK"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2520" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Variation explained by Ethnicity (Sri Lankan Presidential Elections)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2520" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-LK"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-512D-614F-AB50-6E93AF7A8839}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-512D-614F-AB50-6E93AF7A8839}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-512D-614F-AB50-6E93AF7A8839}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-512D-614F-AB50-6E93AF7A8839}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:numRef>
+              <c:f>example4_ethnic_voting!$C$11:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>example4_ethnic_voting!$D$11:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4.7863335482169998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.4721841736271301E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2998459664190002E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5608293130512705E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11416077579961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16517150769934799</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.183417569617359</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.22343627813119399</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-512D-614F-AB50-6E93AF7A8839}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="351128768"/>
+        <c:axId val="1285597904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="351128768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-LK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1285597904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1285597904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-LK"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="351128768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2100" b="0" i="0">
+          <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+          <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-LK"/>
     </a:p>
@@ -1016,7 +1475,550 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1529,17 +2531,60 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>762000</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CAAF4B02-39A3-9240-912A-AA8A8E05A158}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4371F486-C311-0A45-A32A-8AD20007A27B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83EAFB5A-DC6D-2C4B-AA39-DA50090142C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1563,19 +2608,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:F18" totalsRowShown="0">
-  <autoFilter ref="A1:F18"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F18">
-    <sortCondition ref="F1:F18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0">
+  <autoFilter ref="A1:E18"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
+    <sortCondition ref="A1:A18"/>
   </sortState>
-  <tableColumns count="6">
+  <tableColumns count="5">
     <tableColumn id="1" name="election_type"/>
     <tableColumn id="2" name="winning_party"/>
     <tableColumn id="3" name="year"/>
-    <tableColumn id="7" name="Column1" dataDxfId="0">
-      <calculatedColumnFormula>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" name="p_group_effect" dataDxfId="1" dataCellStyle="Per cent"/>
+    <tableColumn id="4" name="p_group_effect" dataDxfId="0" dataCellStyle="Per cent"/>
     <tableColumn id="5" name="date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1879,21 +2921,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:E18"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" customWidth="1"/>
-    <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="13.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1903,80 +2944,65 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2">
-        <v>1982</v>
-      </c>
-      <c r="D2" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>1982-presidential</v>
-      </c>
-      <c r="E2" s="1">
-        <v>4.7863335482169998E-2</v>
-      </c>
-      <c r="F2">
-        <v>1982</v>
+        <v>2018</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.11539310884200001</v>
+      </c>
+      <c r="E2">
+        <v>2018</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1988</v>
-      </c>
-      <c r="D3" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>1988-presidential</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5.4721841736271301E-2</v>
-      </c>
-      <c r="F3">
-        <v>1988</v>
+        <v>1989</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9.8320271713257495E-2</v>
+      </c>
+      <c r="E3">
+        <v>1989</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
-        <v>1989</v>
-      </c>
-      <c r="D4" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>1989-parliamentary</v>
-      </c>
-      <c r="E4" s="1">
-        <v>9.8320271713257495E-2</v>
-      </c>
-      <c r="F4">
-        <v>1989</v>
+        <v>1994</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.8090633365218997E-2</v>
+      </c>
+      <c r="E4">
+        <v>1994.08</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1984,83 +3010,67 @@
         <v>6</v>
       </c>
       <c r="C5">
-        <v>1994</v>
-      </c>
-      <c r="D5" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>1994-parliamentary</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5.8090633365218997E-2</v>
-      </c>
-      <c r="F5">
-        <v>1994.08</v>
+        <v>2000</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6.2579681173910606E-2</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
-        <v>1994</v>
-      </c>
-      <c r="D6" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>1994-presidential</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3.2998459664190002E-2</v>
-      </c>
-      <c r="F6">
-        <v>1994.11</v>
+        <v>2001</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.22279319862793E-2</v>
+      </c>
+      <c r="E6">
+        <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>1999</v>
-      </c>
-      <c r="D7" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>1999-presidential</v>
-      </c>
-      <c r="E7" s="1">
-        <v>7.5608293130512705E-2</v>
-      </c>
-      <c r="F7">
-        <v>1999</v>
+        <v>2004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.9894535846266693E-2</v>
+      </c>
+      <c r="E7">
+        <v>2004</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
-        <v>2000</v>
-      </c>
-      <c r="D8" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2000-parliamentary</v>
-      </c>
-      <c r="E8" s="1">
-        <v>6.2579681173910606E-2</v>
-      </c>
-      <c r="F8">
-        <v>2000</v>
+        <v>2010</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.9603091206513696E-2</v>
+      </c>
+      <c r="E8">
+        <v>2010.04</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2068,206 +3078,166 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>2001</v>
-      </c>
-      <c r="D9" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2001-parliamentary</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5.22279319862793E-2</v>
-      </c>
-      <c r="F9">
-        <v>2001</v>
+        <v>2015</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7.8659304741233796E-2</v>
+      </c>
+      <c r="E9">
+        <v>2015.08</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
-        <v>2004</v>
-      </c>
-      <c r="D10" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2004-parliamentary</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8.9894535846266693E-2</v>
-      </c>
-      <c r="F10">
-        <v>2004</v>
+        <v>2020</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.21146280946618601</v>
+      </c>
+      <c r="E10">
+        <v>2020</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>2005</v>
-      </c>
-      <c r="D11" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2005-presidential</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.11416077579961</v>
-      </c>
-      <c r="F11">
-        <v>2005</v>
+        <v>1982</v>
+      </c>
+      <c r="D11" s="1">
+        <v>4.7863335482169998E-2</v>
+      </c>
+      <c r="E11">
+        <v>1982</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C12">
-        <v>2010</v>
-      </c>
-      <c r="D12" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2010-presidential</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0.16517150769934799</v>
-      </c>
-      <c r="F12">
-        <v>2010.01</v>
+        <v>1988</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5.4721841736271301E-2</v>
+      </c>
+      <c r="E12">
+        <v>1988</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>2010</v>
-      </c>
-      <c r="D13" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2010-parliamentary</v>
-      </c>
-      <c r="E13" s="1">
-        <v>7.9603091206513696E-2</v>
-      </c>
-      <c r="F13">
-        <v>2010.04</v>
+        <v>1994</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3.2998459664190002E-2</v>
+      </c>
+      <c r="E13">
+        <v>1994.11</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
         <v>4</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>2015</v>
-      </c>
-      <c r="D14" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2015-presidential</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0.183417569617359</v>
-      </c>
-      <c r="F14">
-        <v>2015.01</v>
+        <v>1999</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7.5608293130512705E-2</v>
+      </c>
+      <c r="E14">
+        <v>1999</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>2015</v>
-      </c>
-      <c r="D15" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2015-parliamentary</v>
-      </c>
-      <c r="E15" s="1">
-        <v>7.8659304741233796E-2</v>
-      </c>
-      <c r="F15">
-        <v>2015.08</v>
+        <v>2005</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.11416077579961</v>
+      </c>
+      <c r="E15">
+        <v>2005</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16">
-        <v>2018</v>
-      </c>
-      <c r="D16" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2018-local-authority</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.11539310884200001</v>
-      </c>
-      <c r="F16">
-        <v>2018</v>
+        <v>2010</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.16517150769934799</v>
+      </c>
+      <c r="E16">
+        <v>2010.01</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
-        <v>2019</v>
-      </c>
-      <c r="D17" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2019-presidential</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0.22343627813119399</v>
-      </c>
-      <c r="F17">
-        <v>2019</v>
+        <v>2015</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.183417569617359</v>
+      </c>
+      <c r="E17">
+        <v>2015.01</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B18" t="s">
         <v>9</v>
       </c>
       <c r="C18">
-        <v>2020</v>
-      </c>
-      <c r="D18" t="str">
-        <f>Table2[[#This Row],[year]]&amp;"-"&amp;Table2[[#This Row],[election_type]]</f>
-        <v>2020-parliamentary</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.21146280946618601</v>
-      </c>
-      <c r="F18">
-        <v>2020</v>
+        <v>2019</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.22343627813119399</v>
+      </c>
+      <c r="E18">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>
@@ -2283,7 +3253,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2291,4 +3261,31 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="Q20:Q21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="20" spans="17:17">
+      <c r="Q20">
+        <v>7.76</v>
+      </c>
+    </row>
+    <row r="21" spans="17:17">
+      <c r="Q21">
+        <f>Q20*16/9</f>
+        <v>13.795555555555556</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/examples/example4_ethnic_voting.xlsx
+++ b/examples/example4_ethnic_voting.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nuwan.senaratna/Dropbox/_CODING/py/elections_lk/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{F4E4F0A1-8288-AD4B-8529-C3BA8E85BBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C03CABCE-9F61-444E-92BF-88EBFF5E5FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="500" windowWidth="28100" windowHeight="16700" activeTab="1"/>
+    <workbookView xWindow="3860" yWindow="500" windowWidth="31160" windowHeight="17940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="example4_ethnic_voting" sheetId="1" r:id="rId1"/>
@@ -79,10 +79,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-  </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18">
     <font>
       <sz val="12"/>
@@ -546,7 +543,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -595,7 +592,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -631,7 +628,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2520" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2460" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -664,7 +661,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2520" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="2460" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -776,6 +773,122 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.5627376425855549E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-AC93-284D-BF97-851D8A3C35B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4876660341569889E-4"/>
+                  <c:y val="-4.1825095057034252E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-213C-1A45-8144-76BF12005C96}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-LK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="127000" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>example4_ethnic_voting!$C$3:$C$10</c:f>
@@ -813,31 +926,31 @@
             <c:numRef>
               <c:f>example4_ethnic_voting!$D$3:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>9.8320271713257495E-2</c:v>
+                  <c:v>0.42768612093570002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.8090633365218997E-2</c:v>
+                  <c:v>0.49685227272766003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.2579681173910606E-2</c:v>
+                  <c:v>0.44362202804345002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.22279319862793E-2</c:v>
+                  <c:v>0.44196582254016098</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.9894535846266693E-2</c:v>
+                  <c:v>0.65170594374972002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.9603091206513696E-2</c:v>
+                  <c:v>0.60346274881386297</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.8659304741233796E-2</c:v>
+                  <c:v>0.63486425591558904</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.21146280946618601</c:v>
+                  <c:v>0.754194563088461</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -890,7 +1003,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -949,7 +1062,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1007,7 +1120,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="2100" b="0" i="0">
+        <a:defRPr sz="2050" b="0" i="0">
           <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
           <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
         </a:defRPr>
@@ -1188,6 +1301,80 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Gill Sans" panose="020B0502020104020203" pitchFamily="34" charset="-79"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-LK"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="127000" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:alpha val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
               <c:f>example4_ethnic_voting!$C$11:$C$18</c:f>
@@ -1225,31 +1412,31 @@
             <c:numRef>
               <c:f>example4_ethnic_voting!$D$11:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
+                <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
-                  <c:v>4.7863335482169998E-2</c:v>
+                  <c:v>0.47385817122206197</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5.4721841736271301E-2</c:v>
+                  <c:v>0.31969954517646698</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.2998459664190002E-2</c:v>
+                  <c:v>0.61771934251150795</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.5608293130512705E-2</c:v>
+                  <c:v>0.238580684154758</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.11416077579961</c:v>
+                  <c:v>0.53855355341525701</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.16517150769934799</c:v>
+                  <c:v>0.78331655127545396</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.183417569617359</c:v>
+                  <c:v>0.79719538877979201</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22343627813119399</c:v>
+                  <c:v>0.92726438477347495</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2608,17 +2795,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0">
-  <autoFilter ref="A1:E18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A1:E18" totalsRowShown="0">
+  <autoFilter ref="A1:E18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E18">
     <sortCondition ref="A1:A18"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="election_type"/>
-    <tableColumn id="2" name="winning_party"/>
-    <tableColumn id="3" name="year"/>
-    <tableColumn id="4" name="p_group_effect" dataDxfId="0" dataCellStyle="Per cent"/>
-    <tableColumn id="5" name="date"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="election_type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="winning_party"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="year"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="p_group_effect" dataDxfId="0" dataCellStyle="Per cent"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2920,11 +3107,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2962,7 +3149,7 @@
         <v>2018</v>
       </c>
       <c r="D2" s="1">
-        <v>0.11539310884200001</v>
+        <v>0.32090278922756899</v>
       </c>
       <c r="E2">
         <v>2018</v>
@@ -2979,7 +3166,7 @@
         <v>1989</v>
       </c>
       <c r="D3" s="1">
-        <v>9.8320271713257495E-2</v>
+        <v>0.42768612093570002</v>
       </c>
       <c r="E3">
         <v>1989</v>
@@ -2996,7 +3183,7 @@
         <v>1994</v>
       </c>
       <c r="D4" s="1">
-        <v>5.8090633365218997E-2</v>
+        <v>0.49685227272766003</v>
       </c>
       <c r="E4">
         <v>1994.08</v>
@@ -3013,7 +3200,7 @@
         <v>2000</v>
       </c>
       <c r="D5" s="1">
-        <v>6.2579681173910606E-2</v>
+        <v>0.44362202804345002</v>
       </c>
       <c r="E5">
         <v>2000</v>
@@ -3030,7 +3217,7 @@
         <v>2001</v>
       </c>
       <c r="D6" s="1">
-        <v>5.22279319862793E-2</v>
+        <v>0.44196582254016098</v>
       </c>
       <c r="E6">
         <v>2001</v>
@@ -3047,7 +3234,7 @@
         <v>2004</v>
       </c>
       <c r="D7" s="1">
-        <v>8.9894535846266693E-2</v>
+        <v>0.65170594374972002</v>
       </c>
       <c r="E7">
         <v>2004</v>
@@ -3064,7 +3251,7 @@
         <v>2010</v>
       </c>
       <c r="D8" s="1">
-        <v>7.9603091206513696E-2</v>
+        <v>0.60346274881386297</v>
       </c>
       <c r="E8">
         <v>2010.04</v>
@@ -3081,7 +3268,7 @@
         <v>2015</v>
       </c>
       <c r="D9" s="1">
-        <v>7.8659304741233796E-2</v>
+        <v>0.63486425591558904</v>
       </c>
       <c r="E9">
         <v>2015.08</v>
@@ -3098,7 +3285,7 @@
         <v>2020</v>
       </c>
       <c r="D10" s="1">
-        <v>0.21146280946618601</v>
+        <v>0.754194563088461</v>
       </c>
       <c r="E10">
         <v>2020</v>
@@ -3115,7 +3302,7 @@
         <v>1982</v>
       </c>
       <c r="D11" s="1">
-        <v>4.7863335482169998E-2</v>
+        <v>0.47385817122206197</v>
       </c>
       <c r="E11">
         <v>1982</v>
@@ -3132,7 +3319,7 @@
         <v>1988</v>
       </c>
       <c r="D12" s="1">
-        <v>5.4721841736271301E-2</v>
+        <v>0.31969954517646698</v>
       </c>
       <c r="E12">
         <v>1988</v>
@@ -3149,7 +3336,7 @@
         <v>1994</v>
       </c>
       <c r="D13" s="1">
-        <v>3.2998459664190002E-2</v>
+        <v>0.61771934251150795</v>
       </c>
       <c r="E13">
         <v>1994.11</v>
@@ -3166,7 +3353,7 @@
         <v>1999</v>
       </c>
       <c r="D14" s="1">
-        <v>7.5608293130512705E-2</v>
+        <v>0.238580684154758</v>
       </c>
       <c r="E14">
         <v>1999</v>
@@ -3183,7 +3370,7 @@
         <v>2005</v>
       </c>
       <c r="D15" s="1">
-        <v>0.11416077579961</v>
+        <v>0.53855355341525701</v>
       </c>
       <c r="E15">
         <v>2005</v>
@@ -3200,7 +3387,7 @@
         <v>2010</v>
       </c>
       <c r="D16" s="1">
-        <v>0.16517150769934799</v>
+        <v>0.78331655127545396</v>
       </c>
       <c r="E16">
         <v>2010.01</v>
@@ -3217,7 +3404,7 @@
         <v>2015</v>
       </c>
       <c r="D17" s="1">
-        <v>0.183417569617359</v>
+        <v>0.79719538877979201</v>
       </c>
       <c r="E17">
         <v>2015.01</v>
@@ -3234,7 +3421,7 @@
         <v>2019</v>
       </c>
       <c r="D18" s="1">
-        <v>0.22343627813119399</v>
+        <v>0.92726438477347495</v>
       </c>
       <c r="E18">
         <v>2019</v>
@@ -3249,11 +3436,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3264,7 +3451,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="Q20:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
